--- a/public_html/export/vendor-master.xlsx
+++ b/public_html/export/vendor-master.xlsx
@@ -15,18 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>Id</t>
   </si>
   <si>
-    <t>Client Code</t>
-  </si>
-  <si>
-    <t>Client Name</t>
-  </si>
-  <si>
-    <t>Client</t>
+    <t>Vendor Code</t>
+  </si>
+  <si>
+    <t>Vendor Name</t>
   </si>
   <si>
     <t>Address 1</t>
@@ -59,40 +56,34 @@
     <t>Selft Vendor</t>
   </si>
   <si>
-    <t>IEC</t>
-  </si>
-  <si>
     <t>Active</t>
   </si>
   <si>
-    <t>Aadhar No</t>
-  </si>
-  <si>
-    <t>CLIENT 1 2323</t>
-  </si>
-  <si>
-    <t>JATIN</t>
-  </si>
-  <si>
-    <t>njhhj</t>
-  </si>
-  <si>
-    <t>Houston Museum of Natural Science, Hermann Park Drive, Houston, TX, USA</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>jhh</t>
-  </si>
-  <si>
-    <t>INDIA</t>
-  </si>
-  <si>
-    <t>jhjhgjj</t>
-  </si>
-  <si>
-    <t>jghjjjghjhgj</t>
+    <t>ThirdPartyTracking</t>
+  </si>
+  <si>
+    <t>Patel Miteshkumar</t>
+  </si>
+  <si>
+    <t>Fire Protection</t>
+  </si>
+  <si>
+    <t>Association of India 212 Sanghavi Square, M.G. R</t>
+  </si>
+  <si>
+    <t>Surat</t>
+  </si>
+  <si>
+    <t>Gujarat</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>patelmitesh173@gmail.com</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -428,7 +419,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +427,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -482,56 +473,52 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2">
+        <v>366</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="F2">
-        <v>77030</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2">
+        <v>9978121859</v>
+      </c>
+      <c r="L2">
+        <v>1213</v>
+      </c>
+      <c r="M2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2"/>
-      <c r="K2">
-        <v>9510965177</v>
-      </c>
-      <c r="L2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
       <c r="N2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
